--- a/data/manual/rcl.xlsx
+++ b/data/manual/rcl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>state</t>
   </si>
@@ -68,18 +68,9 @@
     <t>se</t>
   </si>
   <si>
-    <t>report not available at SISTN/SICONFI</t>
-  </si>
-  <si>
     <t>zero reported - value if from RREO</t>
   </si>
   <si>
-    <t>can't parse page</t>
-  </si>
-  <si>
-    <t>non-standard report and value in thousands</t>
-  </si>
-  <si>
     <t>non-standard report</t>
   </si>
   <si>
@@ -99,6 +90,12 @@
   </si>
   <si>
     <t>se2014</t>
+  </si>
+  <si>
+    <t>parsing error</t>
+  </si>
+  <si>
+    <t>values in thousands</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,12 +466,12 @@
         <v>7801589661.2600002</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -486,12 +483,12 @@
         <v>3261805461.9699998</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -503,12 +500,12 @@
         <v>21624180849.009998</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -520,12 +517,12 @@
         <v>7399789000</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -537,12 +534,12 @@
         <v>14418477503.790001</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -554,12 +551,12 @@
         <v>8099122726.4700003</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -571,7 +568,7 @@
         <v>5982485349.9399996</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
